--- a/segmentfault/思否博客测试用例.xlsx
+++ b/segmentfault/思否博客测试用例.xlsx
@@ -2272,7 +2272,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
